--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi4</t>
+  </si>
+  <si>
+    <t>Adam22</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lgi4</t>
-  </si>
-  <si>
-    <t>Adam22</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.212949</v>
+        <v>3.123305</v>
       </c>
       <c r="H2">
-        <v>0.6388470000000001</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I2">
-        <v>0.01692613415997515</v>
+        <v>0.7468342151689542</v>
       </c>
       <c r="J2">
-        <v>0.02207283499662091</v>
+        <v>0.7986358970573708</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.319612666666667</v>
+        <v>1.507281333333333</v>
       </c>
       <c r="N2">
-        <v>9.958838</v>
+        <v>4.521844</v>
       </c>
       <c r="O2">
-        <v>0.1773188829476472</v>
+        <v>0.2777659256678391</v>
       </c>
       <c r="P2">
-        <v>0.2112475282640173</v>
+        <v>0.2908185693226504</v>
       </c>
       <c r="Q2">
-        <v>0.706908197754</v>
+        <v>4.707699324806667</v>
       </c>
       <c r="R2">
-        <v>6.362173779786001</v>
+        <v>42.36929392326</v>
       </c>
       <c r="S2">
-        <v>0.003001323201868806</v>
+        <v>0.2074450970968187</v>
       </c>
       <c r="T2">
-        <v>0.004662831834815665</v>
+        <v>0.2322581489919361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.212949</v>
+        <v>3.123305</v>
       </c>
       <c r="H3">
-        <v>0.6388470000000001</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I3">
-        <v>0.01692613415997515</v>
+        <v>0.7468342151689542</v>
       </c>
       <c r="J3">
-        <v>0.02207283499662091</v>
+        <v>0.7986358970573708</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.676898</v>
       </c>
       <c r="O3">
-        <v>0.0654678232613522</v>
+        <v>0.2258629392248442</v>
       </c>
       <c r="P3">
-        <v>0.07799460280194422</v>
+        <v>0.2364765825413957</v>
       </c>
       <c r="Q3">
-        <v>0.260997250734</v>
+        <v>3.828024635963333</v>
       </c>
       <c r="R3">
-        <v>2.348975256606</v>
+        <v>34.45222172367</v>
       </c>
       <c r="S3">
-        <v>0.001108117159683189</v>
+        <v>0.1686821709517397</v>
       </c>
       <c r="T3">
-        <v>0.001721561998274302</v>
+        <v>0.1888586876310089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.212949</v>
+        <v>3.123305</v>
       </c>
       <c r="H4">
-        <v>0.6388470000000001</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I4">
-        <v>0.01692613415997515</v>
+        <v>0.7468342151689542</v>
       </c>
       <c r="J4">
-        <v>0.02207283499662091</v>
+        <v>0.7986358970573708</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.216913333333333</v>
+        <v>0.9373149999999999</v>
       </c>
       <c r="N4">
-        <v>6.65074</v>
+        <v>2.811945</v>
       </c>
       <c r="O4">
-        <v>0.1184176093210107</v>
+        <v>0.1727309712259096</v>
       </c>
       <c r="P4">
-        <v>0.1410759353778654</v>
+        <v>0.1808478624901656</v>
       </c>
       <c r="Q4">
-        <v>0.4720894774200001</v>
+        <v>2.927520626075</v>
       </c>
       <c r="R4">
-        <v>4.248805296780001</v>
+        <v>26.347685634675</v>
       </c>
       <c r="S4">
-        <v>0.00200435234227095</v>
+        <v>0.1290013993308734</v>
       </c>
       <c r="T4">
-        <v>0.003113945843589577</v>
+        <v>0.1444315948907414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.212949</v>
+        <v>3.123305</v>
       </c>
       <c r="H5">
-        <v>0.6388470000000001</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I5">
-        <v>0.01692613415997515</v>
+        <v>0.7468342151689542</v>
       </c>
       <c r="J5">
-        <v>0.02207283499662091</v>
+        <v>0.7986358970573708</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.020457499999999</v>
+        <v>0.730656</v>
       </c>
       <c r="N5">
-        <v>18.040915</v>
+        <v>1.461312</v>
       </c>
       <c r="O5">
-        <v>0.4818325534294442</v>
+        <v>0.1346472856105345</v>
       </c>
       <c r="P5">
-        <v>0.3826850784570683</v>
+        <v>0.0939830443451877</v>
       </c>
       <c r="Q5">
-        <v>1.9208974041675</v>
+        <v>2.28206153808</v>
       </c>
       <c r="R5">
-        <v>11.525384425005</v>
+        <v>13.69236922848</v>
       </c>
       <c r="S5">
-        <v>0.008155562441990165</v>
+        <v>0.1005591998735736</v>
       </c>
       <c r="T5">
-        <v>0.008446944592451796</v>
+        <v>0.07505823292880164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.212949</v>
+        <v>3.123305</v>
       </c>
       <c r="H6">
-        <v>0.6388470000000001</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I6">
-        <v>0.01692613415997515</v>
+        <v>0.7468342151689542</v>
       </c>
       <c r="J6">
-        <v>0.02207283499662091</v>
+        <v>0.7986358970573708</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.938529666666666</v>
+        <v>1.025559333333333</v>
       </c>
       <c r="N6">
-        <v>8.815588999999999</v>
+        <v>3.076678</v>
       </c>
       <c r="O6">
-        <v>0.1569631310405457</v>
+        <v>0.1889928782708727</v>
       </c>
       <c r="P6">
-        <v>0.1869968550991049</v>
+        <v>0.1978739413006007</v>
       </c>
       <c r="Q6">
-        <v>0.625756953987</v>
+        <v>3.203134593596667</v>
       </c>
       <c r="R6">
-        <v>5.631812585883</v>
+        <v>28.82821134237</v>
       </c>
       <c r="S6">
-        <v>0.002656779014162037</v>
+        <v>0.1411463479159489</v>
       </c>
       <c r="T6">
-        <v>0.004127550727489572</v>
+        <v>0.1580292326148828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.123305</v>
+        <v>0.2449753333333333</v>
       </c>
       <c r="H7">
-        <v>9.369915000000001</v>
+        <v>0.734926</v>
       </c>
       <c r="I7">
-        <v>0.2482541803554897</v>
+        <v>0.0585776799914683</v>
       </c>
       <c r="J7">
-        <v>0.3237404069008122</v>
+        <v>0.06264072676014512</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.319612666666667</v>
+        <v>1.507281333333333</v>
       </c>
       <c r="N7">
-        <v>9.958838</v>
+        <v>4.521844</v>
       </c>
       <c r="O7">
-        <v>0.1773188829476472</v>
+        <v>0.2777659256678391</v>
       </c>
       <c r="P7">
-        <v>0.2112475282640173</v>
+        <v>0.2908185693226504</v>
       </c>
       <c r="Q7">
-        <v>10.36816283986333</v>
+        <v>0.3692467470604444</v>
       </c>
       <c r="R7">
-        <v>93.31346555877001</v>
+        <v>3.323220723544</v>
       </c>
       <c r="S7">
-        <v>0.04402015394771918</v>
+        <v>0.01627088350630465</v>
       </c>
       <c r="T7">
-        <v>0.06838936075698379</v>
+        <v>0.01821708653771647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.123305</v>
+        <v>0.2449753333333333</v>
       </c>
       <c r="H8">
-        <v>9.369915000000001</v>
+        <v>0.734926</v>
       </c>
       <c r="I8">
-        <v>0.2482541803554897</v>
+        <v>0.0585776799914683</v>
       </c>
       <c r="J8">
-        <v>0.3237404069008122</v>
+        <v>0.06264072676014512</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.676898</v>
       </c>
       <c r="O8">
-        <v>0.0654678232613522</v>
+        <v>0.2258629392248442</v>
       </c>
       <c r="P8">
-        <v>0.07799460280194422</v>
+        <v>0.2364765825413957</v>
       </c>
       <c r="Q8">
-        <v>3.828024635963333</v>
+        <v>0.3002497710608888</v>
       </c>
       <c r="R8">
-        <v>34.45222172367</v>
+        <v>2.702247939548</v>
       </c>
       <c r="S8">
-        <v>0.01625266080340505</v>
+        <v>0.01323052697584537</v>
       </c>
       <c r="T8">
-        <v>0.02525000444716865</v>
+        <v>0.01481306499214847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.123305</v>
+        <v>0.2449753333333333</v>
       </c>
       <c r="H9">
-        <v>9.369915000000001</v>
+        <v>0.734926</v>
       </c>
       <c r="I9">
-        <v>0.2482541803554897</v>
+        <v>0.0585776799914683</v>
       </c>
       <c r="J9">
-        <v>0.3237404069008122</v>
+        <v>0.06264072676014512</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.216913333333333</v>
+        <v>0.9373149999999999</v>
       </c>
       <c r="N9">
-        <v>6.65074</v>
+        <v>2.811945</v>
       </c>
       <c r="O9">
-        <v>0.1184176093210107</v>
+        <v>0.1727309712259096</v>
       </c>
       <c r="P9">
-        <v>0.1410759353778654</v>
+        <v>0.1808478624901656</v>
       </c>
       <c r="Q9">
-        <v>6.924096498566667</v>
+        <v>0.2296190545633333</v>
       </c>
       <c r="R9">
-        <v>62.3168684871</v>
+        <v>2.066571491069999</v>
       </c>
       <c r="S9">
-        <v>0.0293976665416441</v>
+        <v>0.01011817955708685</v>
       </c>
       <c r="T9">
-        <v>0.04567198072314283</v>
+        <v>0.01132844153940276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.123305</v>
+        <v>0.2449753333333333</v>
       </c>
       <c r="H10">
-        <v>9.369915000000001</v>
+        <v>0.734926</v>
       </c>
       <c r="I10">
-        <v>0.2482541803554897</v>
+        <v>0.0585776799914683</v>
       </c>
       <c r="J10">
-        <v>0.3237404069008122</v>
+        <v>0.06264072676014512</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.020457499999999</v>
+        <v>0.730656</v>
       </c>
       <c r="N10">
-        <v>18.040915</v>
+        <v>1.461312</v>
       </c>
       <c r="O10">
-        <v>0.4818325534294442</v>
+        <v>0.1346472856105345</v>
       </c>
       <c r="P10">
-        <v>0.3826850784570683</v>
+        <v>0.0939830443451877</v>
       </c>
       <c r="Q10">
-        <v>28.1736400120375</v>
+        <v>0.178992697152</v>
       </c>
       <c r="R10">
-        <v>169.041840072225</v>
+        <v>1.073956182912</v>
       </c>
       <c r="S10">
-        <v>0.1196169456202194</v>
+        <v>0.007887325608213726</v>
       </c>
       <c r="T10">
-        <v>0.1238906230145605</v>
+        <v>0.005887166200913505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.123305</v>
+        <v>0.2449753333333333</v>
       </c>
       <c r="H11">
-        <v>9.369915000000001</v>
+        <v>0.734926</v>
       </c>
       <c r="I11">
-        <v>0.2482541803554897</v>
+        <v>0.0585776799914683</v>
       </c>
       <c r="J11">
-        <v>0.3237404069008122</v>
+        <v>0.06264072676014512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.938529666666666</v>
+        <v>1.025559333333333</v>
       </c>
       <c r="N11">
-        <v>8.815588999999999</v>
+        <v>3.076678</v>
       </c>
       <c r="O11">
-        <v>0.1569631310405457</v>
+        <v>0.1889928782708727</v>
       </c>
       <c r="P11">
-        <v>0.1869968550991049</v>
+        <v>0.1978739413006007</v>
       </c>
       <c r="Q11">
-        <v>9.177924400548333</v>
+        <v>0.2512367395364445</v>
       </c>
       <c r="R11">
-        <v>82.601319604935</v>
+        <v>2.261130655828</v>
       </c>
       <c r="S11">
-        <v>0.038966753442502</v>
+        <v>0.0110707643440177</v>
       </c>
       <c r="T11">
-        <v>0.06053843795895645</v>
+        <v>0.01239496748996393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.15464</v>
+        <v>0.813779</v>
       </c>
       <c r="H12">
-        <v>0.46392</v>
+        <v>1.627558</v>
       </c>
       <c r="I12">
-        <v>0.01229147536029076</v>
+        <v>0.1945881048395774</v>
       </c>
       <c r="J12">
-        <v>0.01602892337544416</v>
+        <v>0.1387233761824841</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.319612666666667</v>
+        <v>1.507281333333333</v>
       </c>
       <c r="N12">
-        <v>9.958838</v>
+        <v>4.521844</v>
       </c>
       <c r="O12">
-        <v>0.1773188829476472</v>
+        <v>0.2777659256678391</v>
       </c>
       <c r="P12">
-        <v>0.2112475282640173</v>
+        <v>0.2908185693226504</v>
       </c>
       <c r="Q12">
-        <v>0.5133449027733333</v>
+        <v>1.226593896158667</v>
       </c>
       <c r="R12">
-        <v>4.62010412496</v>
+        <v>7.359563376952</v>
       </c>
       <c r="S12">
-        <v>0.002179510680665287</v>
+        <v>0.05404994506471574</v>
       </c>
       <c r="T12">
-        <v>0.003386070443795906</v>
+        <v>0.04034333379299786</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.15464</v>
+        <v>0.813779</v>
       </c>
       <c r="H13">
-        <v>0.46392</v>
+        <v>1.627558</v>
       </c>
       <c r="I13">
-        <v>0.01229147536029076</v>
+        <v>0.1945881048395774</v>
       </c>
       <c r="J13">
-        <v>0.01602892337544416</v>
+        <v>0.1387233761824841</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.676898</v>
       </c>
       <c r="O13">
-        <v>0.0654678232613522</v>
+        <v>0.2258629392248442</v>
       </c>
       <c r="P13">
-        <v>0.07799460280194422</v>
+        <v>0.2364765825413957</v>
       </c>
       <c r="Q13">
-        <v>0.1895318355733333</v>
+        <v>0.9973941258473333</v>
       </c>
       <c r="R13">
-        <v>1.70578652016</v>
+        <v>5.984364755084</v>
       </c>
       <c r="S13">
-        <v>0.0008046961365087807</v>
+        <v>0.04395024129725908</v>
       </c>
       <c r="T13">
-        <v>0.001250169512010566</v>
+        <v>0.03280482991823828</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.15464</v>
+        <v>0.813779</v>
       </c>
       <c r="H14">
-        <v>0.46392</v>
+        <v>1.627558</v>
       </c>
       <c r="I14">
-        <v>0.01229147536029076</v>
+        <v>0.1945881048395774</v>
       </c>
       <c r="J14">
-        <v>0.01602892337544416</v>
+        <v>0.1387233761824841</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.216913333333333</v>
+        <v>0.9373149999999999</v>
       </c>
       <c r="N14">
-        <v>6.65074</v>
+        <v>2.811945</v>
       </c>
       <c r="O14">
-        <v>0.1184176093210107</v>
+        <v>0.1727309712259096</v>
       </c>
       <c r="P14">
-        <v>0.1410759353778654</v>
+        <v>0.1808478624901656</v>
       </c>
       <c r="Q14">
-        <v>0.3428234778666667</v>
+        <v>0.7627672633849999</v>
       </c>
       <c r="R14">
-        <v>3.0854113008</v>
+        <v>4.57660358031</v>
       </c>
       <c r="S14">
-        <v>0.00145552712719374</v>
+        <v>0.03361139233794932</v>
       </c>
       <c r="T14">
-        <v>0.002261295358290916</v>
+        <v>0.02508782606002139</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.15464</v>
+        <v>0.813779</v>
       </c>
       <c r="H15">
-        <v>0.46392</v>
+        <v>1.627558</v>
       </c>
       <c r="I15">
-        <v>0.01229147536029076</v>
+        <v>0.1945881048395774</v>
       </c>
       <c r="J15">
-        <v>0.01602892337544416</v>
+        <v>0.1387233761824841</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.020457499999999</v>
+        <v>0.730656</v>
       </c>
       <c r="N15">
-        <v>18.040915</v>
+        <v>1.461312</v>
       </c>
       <c r="O15">
-        <v>0.4818325534294442</v>
+        <v>0.1346472856105345</v>
       </c>
       <c r="P15">
-        <v>0.3826850784570683</v>
+        <v>0.0939830443451877</v>
       </c>
       <c r="Q15">
-        <v>1.3949235478</v>
+        <v>0.594592509024</v>
       </c>
       <c r="R15">
-        <v>8.369541286799999</v>
+        <v>2.378370036096</v>
       </c>
       <c r="S15">
-        <v>0.005922432958263993</v>
+        <v>0.02620076012874721</v>
       </c>
       <c r="T15">
-        <v>0.006134029799514182</v>
+        <v>0.01303764521547256</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.15464</v>
+        <v>0.813779</v>
       </c>
       <c r="H16">
-        <v>0.46392</v>
+        <v>1.627558</v>
       </c>
       <c r="I16">
-        <v>0.01229147536029076</v>
+        <v>0.1945881048395774</v>
       </c>
       <c r="J16">
-        <v>0.01602892337544416</v>
+        <v>0.1387233761824841</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.938529666666666</v>
+        <v>1.025559333333333</v>
       </c>
       <c r="N16">
-        <v>8.815588999999999</v>
+        <v>3.076678</v>
       </c>
       <c r="O16">
-        <v>0.1569631310405457</v>
+        <v>0.1889928782708727</v>
       </c>
       <c r="P16">
-        <v>0.1869968550991049</v>
+        <v>0.1978739413006007</v>
       </c>
       <c r="Q16">
-        <v>0.4544142276533333</v>
+        <v>0.8345786487206668</v>
       </c>
       <c r="R16">
-        <v>4.08972804888</v>
+        <v>5.007471892324</v>
       </c>
       <c r="S16">
-        <v>0.001929308457658957</v>
+        <v>0.03677576601090606</v>
       </c>
       <c r="T16">
-        <v>0.002997358261832586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H17">
-        <v>17.601103</v>
-      </c>
-      <c r="I17">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J17">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.319612666666667</v>
-      </c>
-      <c r="N17">
-        <v>9.958838</v>
-      </c>
-      <c r="O17">
-        <v>0.1773188829476472</v>
-      </c>
-      <c r="P17">
-        <v>0.2112475282640173</v>
-      </c>
-      <c r="Q17">
-        <v>29.21442223305234</v>
-      </c>
-      <c r="R17">
-        <v>175.286533398314</v>
-      </c>
-      <c r="S17">
-        <v>0.124035799211038</v>
-      </c>
-      <c r="T17">
-        <v>0.1284673535232528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H18">
-        <v>17.601103</v>
-      </c>
-      <c r="I18">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J18">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.225632666666667</v>
-      </c>
-      <c r="N18">
-        <v>3.676898</v>
-      </c>
-      <c r="O18">
-        <v>0.0654678232613522</v>
-      </c>
-      <c r="P18">
-        <v>0.07799460280194422</v>
-      </c>
-      <c r="Q18">
-        <v>10.78624340308233</v>
-      </c>
-      <c r="R18">
-        <v>64.71746041849401</v>
-      </c>
-      <c r="S18">
-        <v>0.04579520040866887</v>
-      </c>
-      <c r="T18">
-        <v>0.04743137253913974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H19">
-        <v>17.601103</v>
-      </c>
-      <c r="I19">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J19">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.216913333333333</v>
-      </c>
-      <c r="N19">
-        <v>6.65074</v>
-      </c>
-      <c r="O19">
-        <v>0.1184176093210107</v>
-      </c>
-      <c r="P19">
-        <v>0.1410759353778654</v>
-      </c>
-      <c r="Q19">
-        <v>19.51005996103667</v>
-      </c>
-      <c r="R19">
-        <v>117.06035976622</v>
-      </c>
-      <c r="S19">
-        <v>0.08283394621388747</v>
-      </c>
-      <c r="T19">
-        <v>0.08579343963334263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H20">
-        <v>17.601103</v>
-      </c>
-      <c r="I20">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J20">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>9.020457499999999</v>
-      </c>
-      <c r="N20">
-        <v>18.040915</v>
-      </c>
-      <c r="O20">
-        <v>0.4818325534294442</v>
-      </c>
-      <c r="P20">
-        <v>0.3826850784570683</v>
-      </c>
-      <c r="Q20">
-        <v>79.38500078231125</v>
-      </c>
-      <c r="R20">
-        <v>317.540003129245</v>
-      </c>
-      <c r="S20">
-        <v>0.3370452422044725</v>
-      </c>
-      <c r="T20">
-        <v>0.2327248023502295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H21">
-        <v>17.601103</v>
-      </c>
-      <c r="I21">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J21">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.938529666666666</v>
-      </c>
-      <c r="N21">
-        <v>8.815588999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.1569631310405457</v>
-      </c>
-      <c r="P21">
-        <v>0.1869968550991049</v>
-      </c>
-      <c r="Q21">
-        <v>25.86068166577783</v>
-      </c>
-      <c r="R21">
-        <v>155.164089994667</v>
-      </c>
-      <c r="S21">
-        <v>0.1097968083355744</v>
-      </c>
-      <c r="T21">
-        <v>0.1137196316054844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.868895</v>
-      </c>
-      <c r="I22">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J22">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.319612666666667</v>
-      </c>
-      <c r="N22">
-        <v>9.958838</v>
-      </c>
-      <c r="O22">
-        <v>0.1773188829476472</v>
-      </c>
-      <c r="P22">
-        <v>0.2112475282640173</v>
-      </c>
-      <c r="Q22">
-        <v>0.9614649493344445</v>
-      </c>
-      <c r="R22">
-        <v>8.653184544009999</v>
-      </c>
-      <c r="S22">
-        <v>0.004082095906355976</v>
-      </c>
-      <c r="T22">
-        <v>0.006341911705169088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.868895</v>
-      </c>
-      <c r="I23">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J23">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.225632666666667</v>
-      </c>
-      <c r="N23">
-        <v>3.676898</v>
-      </c>
-      <c r="O23">
-        <v>0.0654678232613522</v>
-      </c>
-      <c r="P23">
-        <v>0.07799460280194422</v>
-      </c>
-      <c r="Q23">
-        <v>0.3549820319677778</v>
-      </c>
-      <c r="R23">
-        <v>3.19483828771</v>
-      </c>
-      <c r="S23">
-        <v>0.001507148753086301</v>
-      </c>
-      <c r="T23">
-        <v>0.002341494305350967</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.868895</v>
-      </c>
-      <c r="I24">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J24">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.216913333333333</v>
-      </c>
-      <c r="N24">
-        <v>6.65074</v>
-      </c>
-      <c r="O24">
-        <v>0.1184176093210107</v>
-      </c>
-      <c r="P24">
-        <v>0.1410759353778654</v>
-      </c>
-      <c r="Q24">
-        <v>0.6420883035888889</v>
-      </c>
-      <c r="R24">
-        <v>5.7787947323</v>
-      </c>
-      <c r="S24">
-        <v>0.002726117096014409</v>
-      </c>
-      <c r="T24">
-        <v>0.00423527381949945</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.868895</v>
-      </c>
-      <c r="I25">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J25">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>9.020457499999999</v>
-      </c>
-      <c r="N25">
-        <v>18.040915</v>
-      </c>
-      <c r="O25">
-        <v>0.4818325534294442</v>
-      </c>
-      <c r="P25">
-        <v>0.3826850784570683</v>
-      </c>
-      <c r="Q25">
-        <v>2.612610139820833</v>
-      </c>
-      <c r="R25">
-        <v>15.675660838925</v>
-      </c>
-      <c r="S25">
-        <v>0.01109237020449817</v>
-      </c>
-      <c r="T25">
-        <v>0.01148867870031228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.868895</v>
-      </c>
-      <c r="I26">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J26">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.938529666666666</v>
-      </c>
-      <c r="N26">
-        <v>8.815588999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.1569631310405457</v>
-      </c>
-      <c r="P26">
-        <v>0.1869968550991049</v>
-      </c>
-      <c r="Q26">
-        <v>0.851091244906111</v>
-      </c>
-      <c r="R26">
-        <v>7.659821204154999</v>
-      </c>
-      <c r="S26">
-        <v>0.003613481790648344</v>
-      </c>
-      <c r="T26">
-        <v>0.005613876545341923</v>
+        <v>0.02744974119575401</v>
       </c>
     </row>
   </sheetData>
